--- a/Backend/results/17229644778933183683/daily_pivot.xlsx
+++ b/Backend/results/17229644778933183683/daily_pivot.xlsx
@@ -458,554 +458,554 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.74519230769231</v>
+        <v>1040.682692307692</v>
       </c>
       <c r="B2" t="n">
-        <v>22.72641509433962</v>
+        <v>1054.632075471698</v>
       </c>
       <c r="C2" t="n">
-        <v>23.33173076923077</v>
+        <v>1054.461538461539</v>
       </c>
       <c r="D2" t="n">
-        <v>22.72596153846154</v>
+        <v>1052.326923076923</v>
       </c>
       <c r="E2" t="n">
-        <v>23.02403846153846</v>
+        <v>1058.807692307692</v>
       </c>
       <c r="F2" t="n">
-        <v>22.68269230769231</v>
+        <v>1049.951923076923</v>
       </c>
       <c r="G2" t="n">
-        <v>21.60096153846154</v>
+        <v>1043.423076923077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.70192307692308</v>
+        <v>1037.105769230769</v>
       </c>
       <c r="B3" t="n">
-        <v>22.72169811320755</v>
+        <v>1054.179245283019</v>
       </c>
       <c r="C3" t="n">
-        <v>23.17788461538462</v>
+        <v>1051.480769230769</v>
       </c>
       <c r="D3" t="n">
-        <v>22.58173076923077</v>
+        <v>1051.653846153846</v>
       </c>
       <c r="E3" t="n">
-        <v>23.04326923076923</v>
+        <v>1057.048076923077</v>
       </c>
       <c r="F3" t="n">
-        <v>22.65865384615385</v>
+        <v>1048.288461538461</v>
       </c>
       <c r="G3" t="n">
-        <v>21.62740384615385</v>
+        <v>1043.475961538461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21.67788461538462</v>
+        <v>1037.009615384615</v>
       </c>
       <c r="B4" t="n">
-        <v>22.62735849056604</v>
+        <v>1051.783018867925</v>
       </c>
       <c r="C4" t="n">
-        <v>22.94711538461538</v>
+        <v>1049.826923076923</v>
       </c>
       <c r="D4" t="n">
-        <v>22.44230769230769</v>
+        <v>1050.432692307692</v>
       </c>
       <c r="E4" t="n">
-        <v>22.83173076923077</v>
+        <v>1054.548076923077</v>
       </c>
       <c r="F4" t="n">
-        <v>22.51442307692308</v>
+        <v>1046.307692307692</v>
       </c>
       <c r="G4" t="n">
-        <v>21.54901960784314</v>
+        <v>1040.813725490196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.69230769230769</v>
+        <v>1038.038461538461</v>
       </c>
       <c r="B5" t="n">
-        <v>22.95754716981132</v>
+        <v>1054.915094339623</v>
       </c>
       <c r="C5" t="n">
-        <v>23.32211538461538</v>
+        <v>1051.201923076923</v>
       </c>
       <c r="D5" t="n">
-        <v>22.57211538461538</v>
+        <v>1049.961538461539</v>
       </c>
       <c r="E5" t="n">
-        <v>22.83173076923077</v>
+        <v>1055.538461538461</v>
       </c>
       <c r="F5" t="n">
-        <v>22.53365384615385</v>
+        <v>1045.134615384615</v>
       </c>
       <c r="G5" t="n">
-        <v>21.49519230769231</v>
+        <v>1042.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.83653846153846</v>
+        <v>1037.317307692308</v>
       </c>
       <c r="B6" t="n">
-        <v>22.61320754716981</v>
+        <v>1052.207547169811</v>
       </c>
       <c r="C6" t="n">
-        <v>22.875</v>
+        <v>1050.471153846154</v>
       </c>
       <c r="D6" t="n">
-        <v>22.35576923076923</v>
+        <v>1047.307692307692</v>
       </c>
       <c r="E6" t="n">
-        <v>22.65865384615385</v>
+        <v>1052.509615384615</v>
       </c>
       <c r="F6" t="n">
-        <v>22.14903846153846</v>
+        <v>1044</v>
       </c>
       <c r="G6" t="n">
-        <v>21.48076923076923</v>
+        <v>1041.894230769231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.67788461538462</v>
+        <v>1038.115384615385</v>
       </c>
       <c r="B7" t="n">
-        <v>22.64150943396226</v>
+        <v>1055.38679245283</v>
       </c>
       <c r="C7" t="n">
-        <v>22.84615384615385</v>
+        <v>1049.971153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>23.27403846153846</v>
+        <v>1055.375</v>
       </c>
       <c r="E7" t="n">
-        <v>23.18269230769231</v>
+        <v>1049.403846153846</v>
       </c>
       <c r="F7" t="n">
-        <v>22.42788461538462</v>
+        <v>1041.807692307692</v>
       </c>
       <c r="G7" t="n">
-        <v>21.81730769230769</v>
+        <v>1043.971153846154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23.85096153846154</v>
+        <v>1051.625</v>
       </c>
       <c r="B8" t="n">
-        <v>23.93396226415094</v>
+        <v>1066.698113207547</v>
       </c>
       <c r="C8" t="n">
-        <v>24.34615384615385</v>
+        <v>1060.307692307692</v>
       </c>
       <c r="D8" t="n">
-        <v>25.21153846153846</v>
+        <v>1063.519230769231</v>
       </c>
       <c r="E8" t="n">
-        <v>24.41826923076923</v>
+        <v>1060.394230769231</v>
       </c>
       <c r="F8" t="n">
-        <v>21.50480769230769</v>
+        <v>1048.317307692308</v>
       </c>
       <c r="G8" t="n">
-        <v>21.26923076923077</v>
+        <v>1051.153846153846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.39903846153846</v>
+        <v>1073.644230769231</v>
       </c>
       <c r="B9" t="n">
-        <v>24.7122641509434</v>
+        <v>1095.047169811321</v>
       </c>
       <c r="C9" t="n">
-        <v>25.07692307692308</v>
+        <v>1079.25</v>
       </c>
       <c r="D9" t="n">
-        <v>25.61057692307692</v>
+        <v>1086.971153846154</v>
       </c>
       <c r="E9" t="n">
-        <v>24.32211538461538</v>
+        <v>1082.192307692308</v>
       </c>
       <c r="F9" t="n">
-        <v>20.98076923076923</v>
+        <v>1055.778846153846</v>
       </c>
       <c r="G9" t="n">
-        <v>20.66826923076923</v>
+        <v>1072.913461538461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28.10096153846154</v>
+        <v>1143.25</v>
       </c>
       <c r="B10" t="n">
-        <v>28.5</v>
+        <v>1147.377358490566</v>
       </c>
       <c r="C10" t="n">
-        <v>29.41826923076923</v>
+        <v>1174.980769230769</v>
       </c>
       <c r="D10" t="n">
-        <v>28.95192307692308</v>
+        <v>1161.009615384615</v>
       </c>
       <c r="E10" t="n">
-        <v>26.98076923076923</v>
+        <v>1138.798076923077</v>
       </c>
       <c r="F10" t="n">
-        <v>20.99519230769231</v>
+        <v>1064.730769230769</v>
       </c>
       <c r="G10" t="n">
-        <v>20.70673076923077</v>
+        <v>1081.884615384615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32.47596153846154</v>
+        <v>1213.605769230769</v>
       </c>
       <c r="B11" t="n">
-        <v>33.62264150943396</v>
+        <v>1230.924528301887</v>
       </c>
       <c r="C11" t="n">
-        <v>34.49038461538461</v>
+        <v>1242.461538461539</v>
       </c>
       <c r="D11" t="n">
-        <v>34.17788461538461</v>
+        <v>1224.625</v>
       </c>
       <c r="E11" t="n">
-        <v>32.13461538461539</v>
+        <v>1190.067307692308</v>
       </c>
       <c r="F11" t="n">
-        <v>20.99519230769231</v>
+        <v>1087.355769230769</v>
       </c>
       <c r="G11" t="n">
-        <v>20.80288461538462</v>
+        <v>1103.932692307692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>36.17788461538461</v>
+        <v>1247.769230769231</v>
       </c>
       <c r="B12" t="n">
-        <v>37.13679245283019</v>
+        <v>1281.481132075472</v>
       </c>
       <c r="C12" t="n">
-        <v>38.50480769230769</v>
+        <v>1282.759615384615</v>
       </c>
       <c r="D12" t="n">
-        <v>38.08173076923077</v>
+        <v>1267.423076923077</v>
       </c>
       <c r="E12" t="n">
-        <v>35.07692307692308</v>
+        <v>1216.461538461539</v>
       </c>
       <c r="F12" t="n">
-        <v>21.27403846153846</v>
+        <v>1104.403846153846</v>
       </c>
       <c r="G12" t="n">
-        <v>20.86538461538462</v>
+        <v>1128.442307692308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38.70192307692308</v>
+        <v>1264.75</v>
       </c>
       <c r="B13" t="n">
-        <v>39.41037735849056</v>
+        <v>1295.584905660377</v>
       </c>
       <c r="C13" t="n">
-        <v>40.47115384615385</v>
+        <v>1304.596153846154</v>
       </c>
       <c r="D13" t="n">
-        <v>40.27884615384615</v>
+        <v>1278.105769230769</v>
       </c>
       <c r="E13" t="n">
-        <v>36.07692307692308</v>
+        <v>1242.461538461539</v>
       </c>
       <c r="F13" t="n">
-        <v>21.44230769230769</v>
+        <v>1104.288461538461</v>
       </c>
       <c r="G13" t="n">
-        <v>20.91826923076923</v>
+        <v>1116.009615384615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>40.29807692307692</v>
+        <v>1278.086538461539</v>
       </c>
       <c r="B14" t="n">
-        <v>40.83962264150944</v>
+        <v>1304.349056603774</v>
       </c>
       <c r="C14" t="n">
-        <v>42.16826923076923</v>
+        <v>1305.894230769231</v>
       </c>
       <c r="D14" t="n">
-        <v>41.14903846153846</v>
+        <v>1279.634615384615</v>
       </c>
       <c r="E14" t="n">
-        <v>35.71153846153846</v>
+        <v>1234.778846153846</v>
       </c>
       <c r="F14" t="n">
-        <v>21.36538461538462</v>
+        <v>1129.307692307692</v>
       </c>
       <c r="G14" t="n">
-        <v>20.94230769230769</v>
+        <v>1123.788461538461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>39.88942307692308</v>
+        <v>1278.153846153846</v>
       </c>
       <c r="B15" t="n">
-        <v>40.55188679245283</v>
+        <v>1318.216981132075</v>
       </c>
       <c r="C15" t="n">
-        <v>41.61538461538461</v>
+        <v>1319.528846153846</v>
       </c>
       <c r="D15" t="n">
-        <v>40.52403846153846</v>
+        <v>1283.961538461539</v>
       </c>
       <c r="E15" t="n">
-        <v>34.98076923076923</v>
+        <v>1228.990384615385</v>
       </c>
       <c r="F15" t="n">
-        <v>21.85576923076923</v>
+        <v>1116.894230769231</v>
       </c>
       <c r="G15" t="n">
-        <v>21.15384615384615</v>
+        <v>1128.682692307692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>40.33653846153846</v>
+        <v>1271.288461538461</v>
       </c>
       <c r="B16" t="n">
-        <v>40.65566037735849</v>
+        <v>1314.216981132075</v>
       </c>
       <c r="C16" t="n">
-        <v>41.70673076923077</v>
+        <v>1304.721153846154</v>
       </c>
       <c r="D16" t="n">
-        <v>40.17307692307692</v>
+        <v>1273.153846153846</v>
       </c>
       <c r="E16" t="n">
-        <v>34.59134615384615</v>
+        <v>1194.163461538461</v>
       </c>
       <c r="F16" t="n">
-        <v>21.89903846153846</v>
+        <v>1085.769230769231</v>
       </c>
       <c r="G16" t="n">
-        <v>21.24038461538462</v>
+        <v>1107.182692307692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40.46634615384615</v>
+        <v>1268.769230769231</v>
       </c>
       <c r="B17" t="n">
-        <v>40.5</v>
+        <v>1278.641509433962</v>
       </c>
       <c r="C17" t="n">
-        <v>41.69711538461539</v>
+        <v>1261.115384615385</v>
       </c>
       <c r="D17" t="n">
-        <v>40.16826923076923</v>
+        <v>1238.009615384615</v>
       </c>
       <c r="E17" t="n">
-        <v>34.31730769230769</v>
+        <v>1179.875</v>
       </c>
       <c r="F17" t="n">
-        <v>22.24519230769231</v>
+        <v>1075.836538461539</v>
       </c>
       <c r="G17" t="n">
-        <v>21.37980769230769</v>
+        <v>1086.346153846154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40.96153846153846</v>
+        <v>1196.769230769231</v>
       </c>
       <c r="B18" t="n">
-        <v>40.0188679245283</v>
+        <v>1201.688679245283</v>
       </c>
       <c r="C18" t="n">
-        <v>41.33653846153846</v>
+        <v>1202.317307692308</v>
       </c>
       <c r="D18" t="n">
-        <v>40.71634615384615</v>
+        <v>1211.682692307692</v>
       </c>
       <c r="E18" t="n">
-        <v>33.10576923076923</v>
+        <v>1153.461538461539</v>
       </c>
       <c r="F18" t="n">
-        <v>22.38942307692308</v>
+        <v>1073.076923076923</v>
       </c>
       <c r="G18" t="n">
-        <v>21.59615384615385</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37.83173076923077</v>
+        <v>1164.894230769231</v>
       </c>
       <c r="B19" t="n">
-        <v>37.04245283018868</v>
+        <v>1168</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14423076923077</v>
+        <v>1169.317307692308</v>
       </c>
       <c r="D19" t="n">
-        <v>37.25480769230769</v>
+        <v>1180.846153846154</v>
       </c>
       <c r="E19" t="n">
-        <v>29.66346153846154</v>
+        <v>1120.846153846154</v>
       </c>
       <c r="F19" t="n">
-        <v>22.52884615384615</v>
+        <v>1072.221153846154</v>
       </c>
       <c r="G19" t="n">
-        <v>21.65865384615385</v>
+        <v>1058.865384615385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31.79326923076923</v>
+        <v>1142.096153846154</v>
       </c>
       <c r="B20" t="n">
-        <v>31.90566037735849</v>
+        <v>1142.028301886792</v>
       </c>
       <c r="C20" t="n">
-        <v>31.75480769230769</v>
+        <v>1143.903846153846</v>
       </c>
       <c r="D20" t="n">
-        <v>31.5625</v>
+        <v>1150.009615384615</v>
       </c>
       <c r="E20" t="n">
-        <v>27.43269230769231</v>
+        <v>1091.509615384615</v>
       </c>
       <c r="F20" t="n">
-        <v>22.41346153846154</v>
+        <v>1066.307692307692</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9375</v>
+        <v>1056.192307692308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>29.83173076923077</v>
+        <v>1122.875</v>
       </c>
       <c r="B21" t="n">
-        <v>29.70754716981132</v>
+        <v>1117.245283018868</v>
       </c>
       <c r="C21" t="n">
-        <v>30.55288461538462</v>
+        <v>1124.163461538461</v>
       </c>
       <c r="D21" t="n">
-        <v>29.58653846153846</v>
+        <v>1126.826923076923</v>
       </c>
       <c r="E21" t="n">
-        <v>26.83653846153846</v>
+        <v>1077.307692307692</v>
       </c>
       <c r="F21" t="n">
-        <v>22.64423076923077</v>
+        <v>1059.269230769231</v>
       </c>
       <c r="G21" t="n">
-        <v>22.57211538461538</v>
+        <v>1054.855769230769</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>27.17788461538462</v>
+        <v>1103.461538461539</v>
       </c>
       <c r="B22" t="n">
-        <v>27.12264150943396</v>
+        <v>1102.283018867925</v>
       </c>
       <c r="C22" t="n">
-        <v>28.00961538461538</v>
+        <v>1105.759615384615</v>
       </c>
       <c r="D22" t="n">
-        <v>26.83173076923077</v>
+        <v>1110.105769230769</v>
       </c>
       <c r="E22" t="n">
-        <v>24.85576923076923</v>
+        <v>1069.019230769231</v>
       </c>
       <c r="F22" t="n">
-        <v>22.40384615384615</v>
+        <v>1056.471153846154</v>
       </c>
       <c r="G22" t="n">
-        <v>22.45673076923077</v>
+        <v>1049.865384615385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22.98557692307692</v>
+        <v>1085.134615384615</v>
       </c>
       <c r="B23" t="n">
-        <v>23.62264150943396</v>
+        <v>1083.88679245283</v>
       </c>
       <c r="C23" t="n">
-        <v>22.92788461538462</v>
+        <v>1082.230769230769</v>
       </c>
       <c r="D23" t="n">
-        <v>22.90865384615385</v>
+        <v>1090.442307692308</v>
       </c>
       <c r="E23" t="n">
-        <v>23.13942307692308</v>
+        <v>1059.211538461539</v>
       </c>
       <c r="F23" t="n">
-        <v>21.38942307692308</v>
+        <v>1043.134615384615</v>
       </c>
       <c r="G23" t="n">
-        <v>21.65865384615385</v>
+        <v>1047.730769230769</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.13461538461538</v>
+        <v>1068.644230769231</v>
       </c>
       <c r="B24" t="n">
-        <v>23.33490566037736</v>
+        <v>1066.735849056604</v>
       </c>
       <c r="C24" t="n">
-        <v>23.07211538461538</v>
+        <v>1067.961538461539</v>
       </c>
       <c r="D24" t="n">
-        <v>22.86057692307692</v>
+        <v>1075.923076923077</v>
       </c>
       <c r="E24" t="n">
-        <v>23.26442307692308</v>
+        <v>1056.221153846154</v>
       </c>
       <c r="F24" t="n">
-        <v>21.75480769230769</v>
+        <v>1052.653846153846</v>
       </c>
       <c r="G24" t="n">
-        <v>21.82211538461538</v>
+        <v>1047.259615384615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23.21153846153846</v>
+        <v>1059.673076923077</v>
       </c>
       <c r="B25" t="n">
-        <v>23.67452830188679</v>
+        <v>1057.820754716981</v>
       </c>
       <c r="C25" t="n">
-        <v>23.13942307692308</v>
+        <v>1058.644230769231</v>
       </c>
       <c r="D25" t="n">
-        <v>23.33173076923077</v>
+        <v>1063.173076923077</v>
       </c>
       <c r="E25" t="n">
-        <v>23.32692307692308</v>
+        <v>1052.009615384615</v>
       </c>
       <c r="F25" t="n">
-        <v>22.01923076923077</v>
+        <v>1045.807692307692</v>
       </c>
       <c r="G25" t="n">
-        <v>22.13942307692308</v>
+        <v>1042.807692307692</v>
       </c>
     </row>
   </sheetData>
